--- a/test_case_data/bmc/bmc_credit_right_2021513.xlsx
+++ b/test_case_data/bmc/bmc_credit_right_2021513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="178">
   <si>
     <t>caseNum</t>
   </si>
@@ -625,6 +625,14 @@
   </si>
   <si>
     <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontInterface</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1522,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1567,8 +1575,8 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
+      <c r="G1" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>171</v>
@@ -1622,6 +1630,9 @@
       </c>
       <c r="F2" s="13" t="s">
         <v>164</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>72</v>
@@ -2561,7 +2572,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2582,19 +2605,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2620,7 +2631,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2638,7 +2649,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_credit_right_2021513.xlsx
+++ b/test_case_data/bmc/bmc_credit_right_2021513.xlsx
@@ -19,8 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>test</author>
+  </authors>
+  <commentList>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>test:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂未区分
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="214">
   <si>
     <t>caseNum</t>
   </si>
@@ -309,24 +346,12 @@
     <t>获取成功，信用分为0，账号未激活</t>
   </si>
   <si>
-    <t>{data{creditInfo{"creditScore":"000","creditLevelName":"未激活"}}}</t>
-  </si>
-  <si>
-    <t>credit002</t>
-  </si>
-  <si>
-    <t>权益说明获取</t>
-  </si>
-  <si>
     <t>未激活用户信用权益说明获取</t>
   </si>
   <si>
     <t>/creditRight/home</t>
   </si>
   <si>
-    <t>credit003</t>
-  </si>
-  <si>
     <t>保持和提升信用分</t>
   </si>
   <si>
@@ -336,315 +361,961 @@
     <t>/creditRight/howToUpgrade</t>
   </si>
   <si>
-    <t>credit004</t>
+    <t>未激活用户进入违法详情</t>
+  </si>
+  <si>
+    <t>检查不存在的文章</t>
+  </si>
+  <si>
+    <t>文章不存在</t>
+  </si>
+  <si>
+    <t>传入参数错误</t>
+  </si>
+  <si>
+    <t>系统出现错误</t>
+  </si>
+  <si>
+    <t>传入参数为空</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>激活用户信用权益获取</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已信用分为600</t>
+  </si>
+  <si>
+    <t>激活用户信用权益说明获取</t>
+  </si>
+  <si>
+    <t>激活用户获取如何保持和提升信用分</t>
+  </si>
+  <si>
+    <t>激活用户进入违法详情</t>
+  </si>
+  <si>
+    <t>所有信用权益</t>
+  </si>
+  <si>
+    <t>检查600分段的所有信用权益</t>
+  </si>
+  <si>
+    <t>/creditRight/v2/all</t>
+  </si>
+  <si>
+    <t>{data{creditInfo{"rightNumDisplay":"5/8"}}}</t>
+  </si>
+  <si>
+    <t>检查750分段的所有信用权益</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已信用分为750</t>
+  </si>
+  <si>
+    <t>{data{creditInfo{"rightNumDisplay":"7/8"}}}</t>
+  </si>
+  <si>
+    <t>检查800分段的所有信用权益</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已信用分为800</t>
+  </si>
+  <si>
+    <t>检查900分段的所有信用权益</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已信用分为900</t>
+  </si>
+  <si>
+    <t>{data{creditInfo{"rightNumDisplay":"8/8"}}}</t>
+  </si>
+  <si>
+    <t>预约通行</t>
+  </si>
+  <si>
+    <t>检查预约通行预约列表信息</t>
+  </si>
+  <si>
+    <t>{"page":"1","size":"20"}</t>
+  </si>
+  <si>
+    <t>信用优享日</t>
+  </si>
+  <si>
+    <t>获取信用优享日信息</t>
+  </si>
+  <si>
+    <t>拜尔口腔</t>
+  </si>
+  <si>
+    <t>获取拜尔口腔权益说明文案</t>
+  </si>
+  <si>
+    <t>credit022</t>
+  </si>
+  <si>
+    <t>判断是否已领取过该权益</t>
+  </si>
+  <si>
+    <t>领取拜耳优惠券权益</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已激活，用户未领取过权益</t>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已激活，用户已领取过权益</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"本月权益已领取"}</t>
+  </si>
+  <si>
+    <t>车辆评估</t>
+  </si>
+  <si>
+    <t>获取车辆评估权益说明文案</t>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditRightIndex001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/v2/index</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活用户信用权益获取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditRightIndex002</t>
+  </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqData</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontInterface</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"creditInfo":{"creditLevelName":"未激活"}}}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"data":{"creditInfo":{"creditLevelName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}}}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用权益主页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/home</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用权益主页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ome00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ome002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45860</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持和提升信用分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/howToUpgrade</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>howToUpgrade001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>howToUpgrade002</t>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"1032"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"9999"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"null"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":" "}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>违法详情</t>
-  </si>
-  <si>
-    <t>未激活用户进入违法详情</t>
-  </si>
-  <si>
-    <t>{"id":"1032"}</t>
-  </si>
-  <si>
-    <t>credit005</t>
-  </si>
-  <si>
-    <t>检查不存在的文章</t>
-  </si>
-  <si>
-    <t>{"id":"9999"}</t>
-  </si>
-  <si>
-    <t>文章不存在</t>
-  </si>
-  <si>
-    <t>{"success":False,"code":1006,"msg":"文章不存在"}</t>
-  </si>
-  <si>
-    <t>credit006</t>
-  </si>
-  <si>
-    <t>传入参数错误</t>
-  </si>
-  <si>
-    <t>{"id":"null"}</t>
-  </si>
-  <si>
-    <t>系统出现错误</t>
-  </si>
-  <si>
-    <t>{"success":False,"code":1001,"msg":"系统出现错误[1001]"}</t>
-  </si>
-  <si>
-    <t>credit007</t>
-  </si>
-  <si>
-    <t>传入参数为空</t>
-  </si>
-  <si>
-    <t>{"id":" "}</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>{"success":False,"code":1005,"msg":"参数错误"}</t>
-  </si>
-  <si>
-    <t>激活用户信用权益获取</t>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已信用分为600</t>
-  </si>
-  <si>
-    <t>{data{creditInfo{"creditScore":"600"}}}</t>
-  </si>
-  <si>
-    <t>credit009</t>
-  </si>
-  <si>
-    <t>激活用户信用权益说明获取</t>
-  </si>
-  <si>
-    <t>credit010</t>
-  </si>
-  <si>
-    <t>激活用户获取如何保持和提升信用分</t>
-  </si>
-  <si>
-    <t>credit011</t>
-  </si>
-  <si>
-    <t>激活用户进入违法详情</t>
-  </si>
-  <si>
-    <t>credit012</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章详情</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"文章不存在"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"参数错误"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/v2/all</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有信用权益</t>
-  </si>
-  <si>
-    <t>检查600分段的所有信用权益</t>
-  </si>
-  <si>
-    <t>/creditRight/v2/all</t>
-  </si>
-  <si>
-    <t>{data{creditInfo{"rightNumDisplay":"5/8"}}}</t>
-  </si>
-  <si>
-    <t>credit013</t>
-  </si>
-  <si>
-    <t>检查750分段的所有信用权益</t>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已信用分为750</t>
-  </si>
-  <si>
-    <t>{data{creditInfo{"rightNumDisplay":"7/8"}}}</t>
-  </si>
-  <si>
-    <t>credit014</t>
-  </si>
-  <si>
-    <t>检查800分段的所有信用权益</t>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已信用分为800</t>
-  </si>
-  <si>
-    <t>credit015</t>
-  </si>
-  <si>
-    <t>检查900分段的所有信用权益</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>用户已登录斑马信用，用户已信用分为900</t>
-  </si>
-  <si>
-    <t>{data{creditInfo{"rightNumDisplay":"8/8"}}}</t>
-  </si>
-  <si>
-    <t>credit016</t>
-  </si>
-  <si>
-    <t>预约通行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无账号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plantrip/getUpdateTimeInfo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>专网</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>预约通行通行凭证获取</t>
-  </si>
-  <si>
-    <t>/plantrip/getUpdateTimeInfo</t>
-  </si>
-  <si>
-    <t>credit017</t>
-  </si>
-  <si>
-    <t>检查预约通行预约列表信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/44512</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Info001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":"1","size":"20"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/20971</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/plantrip/list</t>
-  </si>
-  <si>
-    <t>{"page":"1","size":"20"}</t>
-  </si>
-  <si>
-    <t>credit018</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/20992</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/plantrip/plantripList</t>
-  </si>
-  <si>
-    <t>credit019</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantripList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Record001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我的预约记录获取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/21510</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/plantrip/myPlantrip</t>
-  </si>
-  <si>
-    <t>credit020</t>
-  </si>
-  <si>
-    <t>信用优享日</t>
-  </si>
-  <si>
-    <t>获取信用优享日信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>myPlantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/activity/creditMan/introduce</t>
-  </si>
-  <si>
-    <t>credit021</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/23278</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditMan001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/creditRightDescription</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>拜尔口腔</t>
-  </si>
-  <si>
-    <t>获取拜尔口腔权益说明文案</t>
-  </si>
-  <si>
-    <t>/creditRight/baiEr/creditRightDescription</t>
-  </si>
-  <si>
-    <t>credit022</t>
-  </si>
-  <si>
-    <t>判断是否已领取过该权益</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78246</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>baiErRightDescription001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/creditRight/baiEr/isReceiveRight</t>
-  </si>
-  <si>
-    <t>credit023</t>
-  </si>
-  <si>
-    <t>领取拜耳优惠券权益</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>isReceiveRight001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78344</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveRight001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/creditRight/baiEr/receiveRight</t>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已激活，用户未领取过权益</t>
-  </si>
-  <si>
-    <t>credit024</t>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已激活，用户已领取过权益</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"本月权益已领取"}</t>
-  </si>
-  <si>
-    <t>credit025</t>
-  </si>
-  <si>
-    <t>车辆评估</t>
-  </si>
-  <si>
-    <t>获取车辆评估权益说明文案</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78236</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/receiveRight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveRight002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/creditRight/carValuation/creditRightDescription</t>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>creditRightIndex001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/v2/index</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未激活用户信用权益获取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>creditRightIndex002</t>
-  </si>
-  <si>
-    <t>caseNum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>testPoint</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>reqData</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherExpectData</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>未激活</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontInterface</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78668</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>carValuation001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -717,8 +1388,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,6 +1429,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,56 +1454,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1520,18 +2243,18 @@
   <mergeCells count="1">
     <mergeCell ref="A10:E11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,9 +2264,9 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="35.875" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
@@ -1558,28 +2281,28 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -1588,16 +2311,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
@@ -1614,7 +2337,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>69</v>
@@ -1626,13 +2349,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>72</v>
@@ -1645,10 +2368,10 @@
         <v>73</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>64</v>
@@ -1656,7 +2379,7 @@
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>69</v>
@@ -1668,13 +2391,13 @@
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>63</v>
@@ -1686,31 +2409,34 @@
       <c r="M3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>104</v>
+      <c r="N3" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>75</v>
+      <c r="A4" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
+      <c r="C4" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>72</v>
@@ -1725,31 +2451,34 @@
       <c r="M4" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O4" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
+      <c r="A5" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
+      <c r="C5" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>63</v>
@@ -1761,28 +2490,34 @@
       <c r="M5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O5" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="P5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>83</v>
+      <c r="A6" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
+      <c r="C6" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>72</v>
@@ -1791,76 +2526,79 @@
         <v>63</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="L6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O6" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="P6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>87</v>
+      <c r="A7" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>92</v>
+      <c r="A8" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
+      <c r="C8" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>72</v>
@@ -1869,38 +2607,44 @@
         <v>63</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="4" t="s">
-        <v>94</v>
+      <c r="K8" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>97</v>
+      <c r="A9" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
+      <c r="C9" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="G9" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>72</v>
       </c>
@@ -1908,73 +2652,121 @@
         <v>63</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="4" t="s">
-        <v>99</v>
+      <c r="K9" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>105</v>
+      <c r="A11" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>76</v>
+      <c r="C11" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>150</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J11"/>
+      <c r="K11" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>107</v>
+      <c r="A12" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
+      <c r="C12" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>68</v>
@@ -1983,81 +2775,92 @@
         <v>63</v>
       </c>
       <c r="J12"/>
+      <c r="K12" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="L12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O12" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="P12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>109</v>
+      <c r="A13" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>84</v>
+      <c r="C13" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="L13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="N13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="P13" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>111</v>
+      <c r="A14" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J14"/>
+      <c r="J14" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2065,38 +2868,40 @@
         <v>66</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>116</v>
+      <c r="A15" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="L15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2104,38 +2909,40 @@
         <v>66</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>120</v>
+      <c r="A16" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>65</v>
       </c>
@@ -2143,33 +2950,36 @@
         <v>66</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>123</v>
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>114</v>
+      <c r="E17" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>63</v>
@@ -2181,31 +2991,34 @@
       <c r="M17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>126</v>
+      <c r="O17" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>127</v>
+      <c r="R17" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>68</v>
@@ -2214,34 +3027,40 @@
         <v>63</v>
       </c>
       <c r="J18"/>
+      <c r="K18" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="L18" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O18" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="P18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>131</v>
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>133</v>
+      <c r="E19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>68</v>
@@ -2251,7 +3070,7 @@
       </c>
       <c r="J19"/>
       <c r="K19" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>65</v>
@@ -2259,28 +3078,31 @@
       <c r="M19" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O19" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="P19" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>135</v>
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>68</v>
@@ -2290,7 +3112,7 @@
       </c>
       <c r="J20"/>
       <c r="K20" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>65</v>
@@ -2298,28 +3120,31 @@
       <c r="M20" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O20" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="P20" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>137</v>
+    <row r="21" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>68</v>
@@ -2328,151 +3153,40 @@
         <v>63</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="L21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O21" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="P21" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22"/>
-      <c r="L22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23"/>
-      <c r="L23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24"/>
-      <c r="L24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>151</v>
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>145</v>
+      <c r="C25" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>148</v>
+        <v>109</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>63</v>
@@ -2484,34 +3198,34 @@
       <c r="M25" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O25" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="P25" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>155</v>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>148</v>
+        <v>111</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>63</v>
@@ -2521,33 +3235,39 @@
         <v>65</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>157</v>
+        <v>66</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>158</v>
+    <row r="27" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>161</v>
+        <v>112</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>63</v>
@@ -2559,32 +3279,121 @@
       <c r="M27" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="O27" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="P27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="28" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28"/>
+      <c r="L28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29"/>
+      <c r="L29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1"/>
+    <hyperlink ref="O5" r:id="rId2"/>
+    <hyperlink ref="O6" r:id="rId3"/>
+    <hyperlink ref="O7" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O12" r:id="rId6"/>
+    <hyperlink ref="O13" r:id="rId7"/>
+    <hyperlink ref="O16" r:id="rId8"/>
+    <hyperlink ref="O17" r:id="rId9"/>
+    <hyperlink ref="O18" r:id="rId10"/>
+    <hyperlink ref="O19" r:id="rId11"/>
+    <hyperlink ref="O20" r:id="rId12"/>
+    <hyperlink ref="O21" r:id="rId13"/>
+    <hyperlink ref="O25" r:id="rId14"/>
+    <hyperlink ref="O26" r:id="rId15"/>
+    <hyperlink ref="O27" r:id="rId16"/>
+    <hyperlink ref="O29" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2605,7 +3414,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2631,7 +3452,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2649,7 +3470,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_credit_right_2021513.xlsx
+++ b/test_case_data/bmc/bmc_credit_right_2021513.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\InterfaceAutoTest\test_case_data\bmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autotest\InterfaceAutoTest\test_case_data\bmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,6 +247,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备注：1.除注明非必填的，其他都是必填项</t>
@@ -256,6 +257,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -266,6 +268,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.每个接口都是测过的，参数正确的可用的接口用例</t>
@@ -275,6 +278,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -285,6 +289,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3.不要添加删除类的接口，防止对后端数据引入未知异常</t>
@@ -294,6 +299,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -304,6 +310,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4.目前每个用例都是针对单接口的，多接口用例，caseNum末尾加Multi标识,比如loginMulti，此类用例不 从模板获取数据,硬编码直接写在代码中</t>
@@ -513,790 +520,802 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>reqData</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontInterface</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"creditInfo":{"creditLevelName":"未激活"}}}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"data":{"creditInfo":{"creditLevelName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}}}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用权益主页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/home</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用权益主页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ome00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ome002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/45860</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持和提升信用分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/howToUpgrade</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>howToUpgrade001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>howToUpgrade002</t>
+  </si>
+  <si>
+    <t>未激活</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"1032"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"9999"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"null"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":" "}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>违法详情</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章详情</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"文章不存在"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"参数错误"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/v2/all</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信用权益</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>creditRightA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_SKIP004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>creditRight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录斑马信用，用户已信用分为900</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无账号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plantrip/getUpdateTimeInfo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>专网</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约通行通行凭证获取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/44512</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Info001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":"1","size":"20"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/20971</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plantrip/list</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/20992</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plantrip/plantripList</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plantripList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Record001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的预约记录获取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/21510</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plantrip/myPlantrip</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>myPlantrip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/activity/creditMan/introduce</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/23278</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditMan001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/creditRightDescription</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜尔口腔</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78246</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>baiErRightDescription001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/isReceiveRight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>isReceiveRight001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78344</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveRight001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/receiveRight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78236</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/baiEr/receiveRight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveRight002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creditRight/carValuation/creditRightDescription</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/78668</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>carValuation001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>frontCondition</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>reqData</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>未激活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontInterface</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":{"creditInfo":{"creditLevelName":"未激活"}}}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"data":{"creditInfo":{"creditLevelName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>900</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"}}}</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherExpectData</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用权益主页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/home</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用权益主页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/45856</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>creditRight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ome00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>creditRight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ome002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>未激活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/45860</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持和提升信用分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/howToUpgrade</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>howToUpgrade001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>howToUpgrade002</t>
-  </si>
-  <si>
-    <t>未激活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"1032"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"9999"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"null"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":" "}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>违法详情</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章详情</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/8110</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"文章不存在"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"参数错误"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74916</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/v2/all</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信用权益</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>creditRightA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_SKIP002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>creditRightA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_SKIP003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>creditRightA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_SKIP004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>creditRight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已登录斑马信用，用户已信用分为900</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>无账号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/plantrip/getUpdateTimeInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>专网</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约通行通行凭证获取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/44512</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plantrip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Info001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"page":"1","size":"20"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/20971</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/plantrip/list</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plantrip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约记录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/20992</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/plantrip/plantripList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plantripList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Record001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的预约记录获取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/21510</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/plantrip/myPlantrip</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>myPlantrip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/activity/creditMan/introduce</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/23278</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>creditMan001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/baiEr/creditRightDescription</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜尔口腔</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78246</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>baiErRightDescription001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/baiEr/isReceiveRight</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>isReceiveRight001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78344</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveRight001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/baiEr/receiveRight</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78236</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/baiEr/receiveRight</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveRight002</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creditRight/carValuation/creditRightDescription</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/78668</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>carValuation001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1324,11 +1343,13 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1336,6 +1357,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1343,6 +1365,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1350,18 +1373,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1501,15 +1527,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2199,13 +2225,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2220,11 +2246,11 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2253,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,11 +2324,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>132</v>
+      <c r="G1" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -2311,16 +2337,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
@@ -2355,7 +2381,7 @@
         <v>120</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>72</v>
@@ -2368,10 +2394,10 @@
         <v>73</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>64</v>
@@ -2409,8 +2435,8 @@
       <c r="M3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>134</v>
+      <c r="N3" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>64</v>
@@ -2418,13 +2444,13 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
@@ -2433,10 +2459,10 @@
         <v>74</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>72</v>
@@ -2451,8 +2477,8 @@
       <c r="M4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>140</v>
+      <c r="O4" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>64</v>
@@ -2460,13 +2486,13 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>31</v>
@@ -2490,8 +2516,8 @@
       <c r="M5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>137</v>
+      <c r="O5" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>64</v>
@@ -2499,13 +2525,13 @@
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>
@@ -2514,10 +2540,10 @@
         <v>77</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>72</v>
@@ -2532,8 +2558,8 @@
       <c r="M6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>144</v>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>64</v>
@@ -2541,7 +2567,7 @@
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
@@ -2571,8 +2597,8 @@
       <c r="M7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>144</v>
+      <c r="O7" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>64</v>
@@ -2580,13 +2606,13 @@
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
@@ -2595,10 +2621,10 @@
         <v>79</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>72</v>
@@ -2608,7 +2634,7 @@
       </c>
       <c r="J8"/>
       <c r="K8" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>65</v>
@@ -2616,8 +2642,8 @@
       <c r="M8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>163</v>
+      <c r="O8" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>64</v>
@@ -2625,13 +2651,13 @@
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>31</v>
@@ -2643,7 +2669,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>72</v>
@@ -2653,13 +2679,13 @@
       </c>
       <c r="J9"/>
       <c r="K9" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>64</v>
@@ -2667,13 +2693,13 @@
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -2685,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>72</v>
@@ -2695,13 +2721,13 @@
       </c>
       <c r="J10"/>
       <c r="K10" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>166</v>
+      <c r="M10" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>64</v>
@@ -2709,13 +2735,13 @@
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -2724,10 +2750,10 @@
         <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>72</v>
@@ -2737,13 +2763,13 @@
       </c>
       <c r="J11"/>
       <c r="K11" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>167</v>
+      <c r="M11" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>64</v>
@@ -2751,13 +2777,13 @@
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -2766,7 +2792,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>68</v>
@@ -2776,7 +2802,7 @@
       </c>
       <c r="J12"/>
       <c r="K12" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>65</v>
@@ -2784,8 +2810,8 @@
       <c r="M12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>164</v>
+      <c r="O12" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>64</v>
@@ -2793,13 +2819,13 @@
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -2808,10 +2834,10 @@
         <v>92</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>63</v>
@@ -2826,16 +2852,16 @@
       <c r="N13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>168</v>
+      <c r="O13" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>172</v>
+      <c r="A14" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>69</v>
@@ -2850,7 +2876,7 @@
         <v>95</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>96</v>
@@ -2859,7 +2885,7 @@
         <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>65</v>
@@ -2875,8 +2901,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>173</v>
+      <c r="A15" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
@@ -2900,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>65</v>
@@ -2916,8 +2942,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>174</v>
+      <c r="A16" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>69</v>
@@ -2941,7 +2967,7 @@
         <v>63</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>65</v>
@@ -2952,8 +2978,8 @@
       <c r="N16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>169</v>
+      <c r="O16" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>64</v>
@@ -2961,7 +2987,7 @@
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -2973,10 +2999,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>68</v>
@@ -2991,19 +3017,19 @@
       <c r="M17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>181</v>
+      <c r="O17" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>69</v>
@@ -3018,7 +3044,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>68</v>
@@ -3028,7 +3054,7 @@
       </c>
       <c r="J18"/>
       <c r="K18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>65</v>
@@ -3036,8 +3062,8 @@
       <c r="M18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>184</v>
+      <c r="O18" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>64</v>
@@ -3045,7 +3071,7 @@
     </row>
     <row r="19" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>69</v>
@@ -3057,10 +3083,10 @@
         <v>31</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>68</v>
@@ -3078,8 +3104,8 @@
       <c r="M19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>188</v>
+      <c r="O19" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>64</v>
@@ -3087,7 +3113,7 @@
     </row>
     <row r="20" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>69</v>
@@ -3096,13 +3122,13 @@
         <v>103</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>68</v>
@@ -3120,8 +3146,8 @@
       <c r="M20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>193</v>
+      <c r="O20" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>64</v>
@@ -3129,7 +3155,7 @@
     </row>
     <row r="21" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>69</v>
@@ -3144,7 +3170,7 @@
         <v>107</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>68</v>
@@ -3159,8 +3185,8 @@
       <c r="M21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>197</v>
+      <c r="O21" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>64</v>
@@ -3168,13 +3194,13 @@
     </row>
     <row r="25" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>31</v>
@@ -3183,7 +3209,7 @@
         <v>109</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>68</v>
@@ -3198,8 +3224,8 @@
       <c r="M25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>201</v>
+      <c r="O25" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>64</v>
@@ -3207,7 +3233,7 @@
     </row>
     <row r="26" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
@@ -3222,7 +3248,7 @@
         <v>111</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>68</v>
@@ -3237,16 +3263,16 @@
       <c r="M26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O26" s="16" t="s">
-        <v>205</v>
+      <c r="O26" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18" t="s">
-        <v>206</v>
+      <c r="A27" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>69</v>
@@ -3261,7 +3287,7 @@
         <v>112</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>110</v>
@@ -3279,16 +3305,16 @@
       <c r="M27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>208</v>
+      <c r="O27" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>210</v>
+      <c r="A28" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>69</v>
@@ -3303,7 +3329,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>110</v>
@@ -3327,7 +3353,7 @@
     </row>
     <row r="29" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>69</v>
@@ -3342,7 +3368,7 @@
         <v>117</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>68</v>
@@ -3357,8 +3383,8 @@
       <c r="M29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>212</v>
+      <c r="O29" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>64</v>
@@ -3397,39 +3423,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -3451,6 +3444,39 @@
 </woProps>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
@@ -3461,7 +3487,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3479,7 +3505,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
